--- a/OUTPUT SHEET.xlsx
+++ b/OUTPUT SHEET.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2880" yWindow="2560" windowWidth="12440" windowHeight="7640" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -396,10 +396,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AB11"/>
+  <dimension ref="A2:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -425,8 +425,8 @@
     <col width="13.1796875" bestFit="1" customWidth="1" style="1" min="19" max="19"/>
     <col width="7.90625" bestFit="1" customWidth="1" style="1" min="20" max="22"/>
     <col width="10" bestFit="1" customWidth="1" style="1" min="23" max="28"/>
-    <col width="8.90625" customWidth="1" style="1" min="29" max="33"/>
-    <col width="8.90625" customWidth="1" style="1" min="34" max="16384"/>
+    <col width="8.90625" customWidth="1" style="1" min="29" max="34"/>
+    <col width="8.90625" customWidth="1" style="1" min="35" max="16384"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -851,6 +851,189 @@
         <v>1</v>
       </c>
       <c r="AB11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Shobhan Dude</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>cnm</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Shobhan Dude</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="n">
         <v>1</v>
       </c>
     </row>
